--- a/Affy/ARI/ARI_normed_results.xlsx
+++ b/Affy/ARI/ARI_normed_results.xlsx
@@ -487,31 +487,31 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>0.2610012569162791</v>
+        <v>-0.01586292554596041</v>
       </c>
       <c r="C2">
-        <v>0.509560314197175</v>
+        <v>0.6854252723133342</v>
       </c>
       <c r="D2">
-        <v>0.3216004950359901</v>
+        <v>0.4690748481128704</v>
       </c>
       <c r="E2">
-        <v>0.2610012569162791</v>
+        <v>0.5942751998756042</v>
       </c>
       <c r="F2">
+        <v>0.09260064950199673</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>0.1762291725437023</v>
       </c>
-      <c r="G2">
-        <v>-0.01456839544959351</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.733485908764139</v>
-      </c>
       <c r="J2">
-        <v>0.1781528135791061</v>
+        <v>0.5079728618234201</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -519,19 +519,19 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.3773597798942266</v>
+        <v>0.4469482919323776</v>
       </c>
       <c r="C3">
-        <v>0.5725377412630002</v>
+        <v>0.4293442456321315</v>
       </c>
       <c r="D3">
-        <v>0.8458615589053672</v>
+        <v>0.5597239046618772</v>
       </c>
       <c r="E3">
-        <v>0.3139571642523341</v>
+        <v>0.3941813052359234</v>
       </c>
       <c r="F3">
-        <v>0.586834697989674</v>
+        <v>0.5155554027454251</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3867188117627568</v>
+        <v>0.3754703218770988</v>
       </c>
       <c r="J3">
-        <v>0.4501092819444761</v>
+        <v>0.4899234134726962</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -551,31 +551,31 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.1799863964425278</v>
+        <v>0.1498073400962025</v>
       </c>
       <c r="C4">
-        <v>0.369865160831291</v>
+        <v>0.2456447693183586</v>
       </c>
       <c r="D4">
-        <v>0.203065034653348</v>
+        <v>0.179617747755455</v>
       </c>
       <c r="E4">
-        <v>0.2487289713822294</v>
+        <v>0.1650435633692065</v>
       </c>
       <c r="F4">
-        <v>0.3302102844825939</v>
+        <v>0.2192535997906139</v>
       </c>
       <c r="G4">
-        <v>0.03855024997720916</v>
+        <v>-0.04046440566198269</v>
       </c>
       <c r="H4">
-        <v>-0.04934921699846169</v>
+        <v>-0.05227215521641281</v>
       </c>
       <c r="I4">
-        <v>0.1872028876297103</v>
+        <v>0.5352968665696594</v>
       </c>
       <c r="J4">
-        <v>0.1945692941278757</v>
+        <v>0.1743013859539189</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -583,31 +583,31 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.8856892418626756</v>
+        <v>0.9230451578990424</v>
       </c>
       <c r="C5">
+        <v>0.8490787306869069</v>
+      </c>
+      <c r="D5">
         <v>0.9230451578990424</v>
       </c>
-      <c r="D5">
-        <v>0.8856892418626756</v>
-      </c>
       <c r="E5">
-        <v>0.8132120285889071</v>
+        <v>0.7780876219875478</v>
       </c>
       <c r="F5">
+        <v>0.6779570593759783</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0.9230451578990424</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.3674804716401385</v>
-      </c>
-      <c r="J5">
-        <v>0.6459944017537346</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -615,31 +615,31 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.0443611371446423</v>
+        <v>0.3872850122850123</v>
       </c>
       <c r="C6">
-        <v>0.5589600742804085</v>
+        <v>0.3137373432068913</v>
       </c>
       <c r="D6">
-        <v>0.2531723924481585</v>
+        <v>0.4954701655732584</v>
       </c>
       <c r="E6">
-        <v>0.06968457173023623</v>
+        <v>0.2873527588344699</v>
       </c>
       <c r="F6">
-        <v>0.3022598870056498</v>
+        <v>0.06943244021895703</v>
       </c>
       <c r="G6">
-        <v>0.3936470238978774</v>
+        <v>0.05688789737869489</v>
       </c>
       <c r="H6">
-        <v>-0.003642987249544578</v>
+        <v>0.01624896722665934</v>
       </c>
       <c r="I6">
-        <v>0.1992124835934082</v>
+        <v>0.2380049584366341</v>
       </c>
       <c r="J6">
-        <v>0.369837296620776</v>
+        <v>0.3884246363354998</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -647,31 +647,31 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0.6395554015858164</v>
+        <v>0.3581887149080505</v>
       </c>
       <c r="C7">
-        <v>0.7342073704339934</v>
+        <v>0.6834901485635159</v>
       </c>
       <c r="D7">
-        <v>0.4307097926535683</v>
+        <v>0.3581887149080505</v>
       </c>
       <c r="E7">
-        <v>0.5510533796537623</v>
+        <v>0.5093923760575323</v>
       </c>
       <c r="F7">
-        <v>0.888314606741573</v>
+        <v>0.0358622987011715</v>
       </c>
       <c r="G7">
-        <v>-0.05170824942830832</v>
+        <v>-0.04017794754739839</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6386029495307565</v>
+        <v>0.05696576151121614</v>
       </c>
       <c r="J7">
-        <v>0.7835991850607468</v>
+        <v>-0.05598121308442266</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -679,31 +679,31 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>0.09235063981405141</v>
+        <v>0.774672769640816</v>
       </c>
       <c r="C8">
-        <v>0.4602675003024144</v>
+        <v>0.6401957566748393</v>
       </c>
       <c r="D8">
-        <v>0.4511627859926849</v>
+        <v>0.292630114277278</v>
       </c>
       <c r="E8">
-        <v>0.0833418897470655</v>
+        <v>0.4461260139534836</v>
       </c>
       <c r="F8">
-        <v>0.6052230006595057</v>
+        <v>0.4993337233216952</v>
       </c>
       <c r="G8">
-        <v>0.004377442470882492</v>
+        <v>0.015030426365802</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.368639377166839</v>
+        <v>0.4910031696332042</v>
       </c>
       <c r="J8">
-        <v>0.2426517796105729</v>
+        <v>0.06305699008272014</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -711,31 +711,31 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.2767976712811427</v>
+        <v>-0.07339844711044838</v>
       </c>
       <c r="C9">
-        <v>0.2186517360788632</v>
+        <v>0.8701742752346809</v>
       </c>
       <c r="D9">
-        <v>0.7420408190945743</v>
+        <v>0.3074685757552467</v>
       </c>
       <c r="E9">
-        <v>0.4138834315651605</v>
+        <v>0.5009917975660751</v>
       </c>
       <c r="F9">
-        <v>0.7682558430054285</v>
+        <v>0.3131865223164396</v>
       </c>
       <c r="G9">
-        <v>0.153742698378418</v>
+        <v>0.1178150233837516</v>
       </c>
       <c r="H9">
-        <v>0.02436488803456007</v>
+        <v>0.2161308124973622</v>
       </c>
       <c r="I9">
-        <v>0.04728280244419566</v>
+        <v>0.3724218022367568</v>
       </c>
       <c r="J9">
-        <v>0.3215816335667341</v>
+        <v>0.05988086261185167</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -743,31 +743,31 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.004837595024187897</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C10">
-        <v>-0.04748904375314312</v>
+        <v>-0.02401182120428521</v>
       </c>
       <c r="D10">
-        <v>-0.1192764273600903</v>
+        <v>-0.03455708025001789</v>
       </c>
       <c r="E10">
-        <v>0.1746031746031746</v>
+        <v>0.2259847961299239</v>
       </c>
       <c r="F10">
-        <v>-0.09151973131821978</v>
+        <v>-0.01587301587301587</v>
       </c>
       <c r="G10">
-        <v>-0.09151973131821978</v>
+        <v>-0.1065903603684166</v>
       </c>
       <c r="H10">
         <v>-0.09151973131821978</v>
       </c>
       <c r="I10">
-        <v>-0.1057360055286801</v>
+        <v>0.1200312877764346</v>
       </c>
       <c r="J10">
-        <v>0.1318835496317081</v>
+        <v>-0.0772072404876247</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -775,31 +775,31 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0.06282508088626775</v>
+        <v>0.09929485733413863</v>
       </c>
       <c r="C11">
-        <v>0.03533382686926734</v>
+        <v>0.0291724293203821</v>
       </c>
       <c r="D11">
-        <v>0.03074623398906819</v>
+        <v>0.06624007900101087</v>
       </c>
       <c r="E11">
-        <v>0.04205996930259572</v>
+        <v>0.01536751758084563</v>
       </c>
       <c r="F11">
-        <v>0.07396200131563672</v>
+        <v>0.06416637225208294</v>
       </c>
       <c r="G11">
-        <v>0.002576398792839526</v>
+        <v>0.01917226442420983</v>
       </c>
       <c r="H11">
-        <v>0.0178602910264582</v>
+        <v>0.02864970942634217</v>
       </c>
       <c r="I11">
-        <v>0.06717072841423076</v>
+        <v>0.1465098535459739</v>
       </c>
       <c r="J11">
-        <v>0.04872442679938452</v>
+        <v>0.02089691122409309</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -807,31 +807,31 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>0.002099958000840043</v>
+        <v>0.01451679800912478</v>
       </c>
       <c r="C12">
         <v>-0.02932551319648097</v>
       </c>
       <c r="D12">
-        <v>-0.02574926129168418</v>
+        <v>-0.01503759398496235</v>
       </c>
       <c r="E12">
+        <v>0.01451679800912478</v>
+      </c>
+      <c r="F12">
+        <v>-0.01027960526315787</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>-0.02932551319648097</v>
+      </c>
+      <c r="J12">
         <v>-0.02704987320371931</v>
-      </c>
-      <c r="F12">
-        <v>0.03123680878007606</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>-0.02272727272727273</v>
-      </c>
-      <c r="J12">
-        <v>-0.03191936161276768</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -839,31 +839,31 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.024390243902439</v>
+        <v>-0.06478873239436632</v>
       </c>
       <c r="C13">
-        <v>0.01621621621621616</v>
+        <v>0.07046070460704609</v>
       </c>
       <c r="D13">
-        <v>0.07046070460704609</v>
+        <v>-0.06944444444444441</v>
       </c>
       <c r="E13">
-        <v>-0.1031518624641833</v>
+        <v>-0.02997275204359669</v>
       </c>
       <c r="F13">
-        <v>0.0576923076923077</v>
+        <v>-0.05538461538461534</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1463414634146342</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0576923076923077</v>
+        <v>-0.0576923076923077</v>
       </c>
       <c r="J13">
-        <v>-0.08450704225352125</v>
+        <v>0.1812865497076024</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -871,31 +871,31 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.0213204951856946</v>
+        <v>0.3769230769230769</v>
       </c>
       <c r="C14">
-        <v>-0.05500705218617773</v>
+        <v>-0.09197080291970815</v>
       </c>
       <c r="D14">
-        <v>-0.002054794520548004</v>
+        <v>-0.02307692307692308</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.1440922190201729</v>
+      </c>
+      <c r="G14">
+        <v>0.1991999999999999</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>0.04106628242074932</v>
       </c>
-      <c r="F14">
-        <v>-0.05500705218617773</v>
-      </c>
-      <c r="G14">
-        <v>0.1392801251956182</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0.01650618982118298</v>
-      </c>
       <c r="J14">
-        <v>-0.1000000000000001</v>
+        <v>0.04676753782668504</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -903,31 +903,31 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>0.4587337224966322</v>
+        <v>0.5130472475075856</v>
       </c>
       <c r="C15">
-        <v>0.4332863187588152</v>
+        <v>0.3438428366075707</v>
       </c>
       <c r="D15">
-        <v>0.4607551972846839</v>
+        <v>0.4487714418173389</v>
       </c>
       <c r="E15">
-        <v>0.2471647164716471</v>
+        <v>0.3376476145488899</v>
       </c>
       <c r="F15">
-        <v>0.4741414977244518</v>
+        <v>0.731333640978311</v>
       </c>
       <c r="G15">
-        <v>0.0576252723311547</v>
+        <v>0.1270668176670441</v>
       </c>
       <c r="H15">
-        <v>0.002532617037605548</v>
+        <v>-0.0006139677666922268</v>
       </c>
       <c r="I15">
-        <v>0.3465999165623696</v>
+        <v>0.6088208820882087</v>
       </c>
       <c r="J15">
-        <v>0.4195541650371529</v>
+        <v>0.3533623609095307</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -935,31 +935,31 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>0.4579342415242394</v>
+        <v>0.41771662210604</v>
       </c>
       <c r="C16">
-        <v>0.4472059945549709</v>
+        <v>0.3733871127453246</v>
       </c>
       <c r="D16">
-        <v>0.3386090025058247</v>
+        <v>0.4856464407187964</v>
       </c>
       <c r="E16">
-        <v>0.3578322888639755</v>
+        <v>0.4238281244230387</v>
       </c>
       <c r="F16">
-        <v>0.4429528527007447</v>
+        <v>0.3433221522680295</v>
       </c>
       <c r="G16">
-        <v>0.09705662666939392</v>
+        <v>0.07218113831635374</v>
       </c>
       <c r="H16">
-        <v>0.04133510812290093</v>
+        <v>0.05756422450970444</v>
       </c>
       <c r="I16">
-        <v>0.5005358947118325</v>
+        <v>0.4449905980697924</v>
       </c>
       <c r="J16">
-        <v>0.180771707517427</v>
+        <v>0.291070299888343</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -967,31 +967,31 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>0.0892531876138434</v>
+        <v>0.2100437297221046</v>
       </c>
       <c r="C17">
-        <v>0.1517436380772856</v>
+        <v>-0.009026994184532606</v>
       </c>
       <c r="D17">
-        <v>0.2979140417191656</v>
+        <v>0.1449934068400528</v>
       </c>
       <c r="E17">
-        <v>0.1720430107526882</v>
+        <v>0.07204780742361756</v>
       </c>
       <c r="F17">
-        <v>0.06448875689435726</v>
+        <v>0.2100437297221046</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.1032793334048564</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>-0.05473204104903087</v>
+        <v>0.2153565924057728</v>
       </c>
       <c r="J17">
-        <v>-0.0209453883149777</v>
+        <v>-0.09471214935001485</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -999,31 +999,31 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>0.0298199743222094</v>
+        <v>0.0229667881006179</v>
       </c>
       <c r="C18">
-        <v>0.0229667881006179</v>
+        <v>0.01858277327451917</v>
       </c>
       <c r="D18">
-        <v>0.06523003420652745</v>
+        <v>0.03845373496969431</v>
       </c>
       <c r="E18">
-        <v>0.04592475034136347</v>
+        <v>0.0859629674552513</v>
       </c>
       <c r="F18">
-        <v>0.03489933096170147</v>
+        <v>0.09809833824115108</v>
       </c>
       <c r="G18">
-        <v>-0.001962125180763382</v>
+        <v>-0.007520582002594521</v>
       </c>
       <c r="H18">
-        <v>-0.008311414484543183</v>
+        <v>0.003400311055631334</v>
       </c>
       <c r="I18">
-        <v>-0.00750657962840397</v>
+        <v>0.02891295783279457</v>
       </c>
       <c r="J18">
-        <v>0.02401835615113569</v>
+        <v>0.05517714813032964</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1031,31 +1031,31 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>0.4796955580945822</v>
+        <v>0.4277524218092092</v>
       </c>
       <c r="C19">
-        <v>0.4077320308935397</v>
+        <v>0.3865853726937875</v>
       </c>
       <c r="D19">
-        <v>0.5563067901575899</v>
+        <v>0.4038478214192654</v>
       </c>
       <c r="E19">
-        <v>0.4742664744782721</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4147050517094402</v>
+        <v>0.4855928333401088</v>
       </c>
       <c r="G19">
-        <v>0.06671805667843038</v>
+        <v>0.04811294912513467</v>
       </c>
       <c r="H19">
-        <v>-0.0006612263473267511</v>
+        <v>0.1141997913488729</v>
       </c>
       <c r="I19">
-        <v>0.3411416179995609</v>
+        <v>0.3497656062829619</v>
       </c>
       <c r="J19">
-        <v>0.3683978662170775</v>
+        <v>0.2381696085989845</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1063,19 +1063,19 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.2787225217751971</v>
+        <v>0.3259359903381642</v>
       </c>
       <c r="C20">
-        <v>0.6187511790228259</v>
+        <v>0.2378378378378379</v>
       </c>
       <c r="D20">
-        <v>0.5532589016294509</v>
+        <v>0.1561557030778516</v>
       </c>
       <c r="E20">
         <v>0.2787225217751971</v>
       </c>
       <c r="F20">
-        <v>0.02264407291391486</v>
+        <v>0.01201201201201204</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1084,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>-0.01326699834162522</v>
+        <v>0.03083716926761719</v>
       </c>
       <c r="J20">
-        <v>0.6186360720081518</v>
+        <v>0.1259345531051584</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1095,19 +1095,19 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.2027063051836055</v>
+        <v>-0.0003192649244378704</v>
       </c>
       <c r="C21">
-        <v>0.708536013428644</v>
+        <v>-0.000452379759883236</v>
       </c>
       <c r="D21">
-        <v>0.007635439744276799</v>
+        <v>0.1276766954267066</v>
       </c>
       <c r="E21">
-        <v>0.02828844390171368</v>
+        <v>0.02582549127837833</v>
       </c>
       <c r="F21">
-        <v>-0.002574719357721727</v>
+        <v>0.03680481558334739</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2391891451654939</v>
+        <v>0.5409740077900257</v>
       </c>
       <c r="J21">
-        <v>0.08126123070414976</v>
+        <v>-0.1070392828895331</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1127,31 +1127,31 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>0.263874921387581</v>
+        <v>0.1805643922215898</v>
       </c>
       <c r="C22">
-        <v>0.2432519051276728</v>
+        <v>0.1547785411539182</v>
       </c>
       <c r="D22">
-        <v>0.2264921609197196</v>
+        <v>0.3644577333044043</v>
       </c>
       <c r="E22">
-        <v>0.002102215758736276</v>
+        <v>-0.006366041680322763</v>
       </c>
       <c r="F22">
-        <v>0.05720454797422979</v>
+        <v>0.3044498338916452</v>
       </c>
       <c r="G22">
-        <v>0.02445158384122592</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0094891700650907</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1063415545794942</v>
+        <v>0.03069544202482084</v>
       </c>
       <c r="J22">
-        <v>0.03094549504176446</v>
+        <v>0.1145051826490301</v>
       </c>
     </row>
   </sheetData>

--- a/Affy/ARI/ARI_normed_results.xlsx
+++ b/Affy/ARI/ARI_normed_results.xlsx
@@ -487,31 +487,31 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.01586292554596041</v>
+        <v>0.2715003624495918</v>
       </c>
       <c r="C2">
-        <v>0.6854252723133342</v>
+        <v>0.2826552249573502</v>
       </c>
       <c r="D2">
-        <v>0.4690748481128704</v>
+        <v>0.2832189520379283</v>
       </c>
       <c r="E2">
-        <v>0.5942751998756042</v>
+        <v>0.3402715735376101</v>
       </c>
       <c r="F2">
-        <v>0.09260064950199673</v>
+        <v>0.2625039780894312</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-0.003299673486349881</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002518432701614862</v>
       </c>
       <c r="I2">
-        <v>0.1762291725437023</v>
+        <v>0.2379838265843929</v>
       </c>
       <c r="J2">
-        <v>0.5079728618234201</v>
+        <v>0.1791228691393087</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -519,31 +519,31 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.4469482919323776</v>
+        <v>0.5236133186429381</v>
       </c>
       <c r="C3">
-        <v>0.4293442456321315</v>
+        <v>0.589107995672985</v>
       </c>
       <c r="D3">
-        <v>0.5597239046618772</v>
+        <v>0.5298782355417453</v>
       </c>
       <c r="E3">
-        <v>0.3941813052359234</v>
+        <v>0.4563494910401316</v>
       </c>
       <c r="F3">
-        <v>0.5155554027454251</v>
+        <v>0.6040706920040697</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.002803294144253242</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.004349566399939284</v>
       </c>
       <c r="I3">
-        <v>0.3754703218770988</v>
+        <v>0.5517639918411952</v>
       </c>
       <c r="J3">
-        <v>0.4899234134726962</v>
+        <v>0.4852215134309155</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -551,31 +551,31 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.1498073400962025</v>
+        <v>0.2250923063370726</v>
       </c>
       <c r="C4">
-        <v>0.2456447693183586</v>
+        <v>0.2105918434192801</v>
       </c>
       <c r="D4">
-        <v>0.179617747755455</v>
+        <v>0.2291122964440044</v>
       </c>
       <c r="E4">
-        <v>0.1650435633692065</v>
+        <v>0.147269125630783</v>
       </c>
       <c r="F4">
-        <v>0.2192535997906139</v>
+        <v>0.2585613844909199</v>
       </c>
       <c r="G4">
-        <v>-0.04046440566198269</v>
+        <v>0.03884695045174991</v>
       </c>
       <c r="H4">
-        <v>-0.05227215521641281</v>
+        <v>-0.02156741581260963</v>
       </c>
       <c r="I4">
-        <v>0.5352968665696594</v>
+        <v>0.2663656406451917</v>
       </c>
       <c r="J4">
-        <v>0.1743013859539189</v>
+        <v>0.1974980810687535</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -583,31 +583,31 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.9230451578990424</v>
+        <v>0.6489163677260785</v>
       </c>
       <c r="C5">
-        <v>0.8490787306869069</v>
+        <v>0.6052679162397179</v>
       </c>
       <c r="D5">
-        <v>0.9230451578990424</v>
+        <v>0.660896830169768</v>
       </c>
       <c r="E5">
-        <v>0.7780876219875478</v>
+        <v>0.7490835660727394</v>
       </c>
       <c r="F5">
-        <v>0.6779570593759783</v>
+        <v>0.6380547926573691</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.003210378311898503</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9230451578990424</v>
+        <v>0.6343548134025216</v>
       </c>
       <c r="J5">
-        <v>0.3674804716401385</v>
+        <v>0.4798457823437889</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -615,31 +615,31 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.3872850122850123</v>
+        <v>0.3395425395734259</v>
       </c>
       <c r="C6">
-        <v>0.3137373432068913</v>
+        <v>0.3312318318428814</v>
       </c>
       <c r="D6">
-        <v>0.4954701655732584</v>
+        <v>0.3180020808161989</v>
       </c>
       <c r="E6">
-        <v>0.2873527588344699</v>
+        <v>0.2999000556828486</v>
       </c>
       <c r="F6">
-        <v>0.06943244021895703</v>
+        <v>0.2515594812460584</v>
       </c>
       <c r="G6">
-        <v>0.05688789737869489</v>
+        <v>0.1921968819382264</v>
       </c>
       <c r="H6">
-        <v>0.01624896722665934</v>
+        <v>-0.03492162081861819</v>
       </c>
       <c r="I6">
-        <v>0.2380049584366341</v>
+        <v>0.3316095401655819</v>
       </c>
       <c r="J6">
-        <v>0.3884246363354998</v>
+        <v>0.416643381118918</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -647,31 +647,31 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0.3581887149080505</v>
+        <v>0.4273537484993555</v>
       </c>
       <c r="C7">
-        <v>0.6834901485635159</v>
+        <v>0.5814037221836537</v>
       </c>
       <c r="D7">
-        <v>0.3581887149080505</v>
+        <v>0.3307587434445514</v>
       </c>
       <c r="E7">
-        <v>0.5093923760575323</v>
+        <v>0.3097720410034404</v>
       </c>
       <c r="F7">
-        <v>0.0358622987011715</v>
+        <v>0.5146589723872128</v>
       </c>
       <c r="G7">
-        <v>-0.04017794754739839</v>
+        <v>-0.03447344798027886</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005968970081768998</v>
       </c>
       <c r="I7">
-        <v>0.05696576151121614</v>
+        <v>0.556052029451759</v>
       </c>
       <c r="J7">
-        <v>-0.05598121308442266</v>
+        <v>0.2903419840945723</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -679,31 +679,31 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>0.774672769640816</v>
+        <v>0.5435969658222001</v>
       </c>
       <c r="C8">
-        <v>0.6401957566748393</v>
+        <v>0.4988309019819564</v>
       </c>
       <c r="D8">
-        <v>0.292630114277278</v>
+        <v>0.513666204430223</v>
       </c>
       <c r="E8">
-        <v>0.4461260139534836</v>
+        <v>0.2876386638417071</v>
       </c>
       <c r="F8">
-        <v>0.4993337233216952</v>
+        <v>0.5117784728715347</v>
       </c>
       <c r="G8">
-        <v>0.015030426365802</v>
+        <v>0.01482262038393707</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01713989094532808</v>
       </c>
       <c r="I8">
-        <v>0.4910031696332042</v>
+        <v>0.5073664234193273</v>
       </c>
       <c r="J8">
-        <v>0.06305699008272014</v>
+        <v>0.4247239573925288</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -711,31 +711,31 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.07339844711044838</v>
+        <v>0.4060241786118546</v>
       </c>
       <c r="C9">
-        <v>0.8701742752346809</v>
+        <v>0.5246674889471742</v>
       </c>
       <c r="D9">
-        <v>0.3074685757552467</v>
+        <v>0.4797608393647467</v>
       </c>
       <c r="E9">
-        <v>0.5009917975660751</v>
+        <v>0.5130285040766276</v>
       </c>
       <c r="F9">
-        <v>0.3131865223164396</v>
+        <v>0.4742554221227196</v>
       </c>
       <c r="G9">
-        <v>0.1178150233837516</v>
+        <v>0.1419483176267868</v>
       </c>
       <c r="H9">
-        <v>0.2161308124973622</v>
+        <v>0.03389019264434584</v>
       </c>
       <c r="I9">
-        <v>0.3724218022367568</v>
+        <v>0.4182102184978051</v>
       </c>
       <c r="J9">
-        <v>0.05988086261185167</v>
+        <v>0.2642474524889734</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -743,31 +743,31 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.02222222222222222</v>
+        <v>-0.01557155763393895</v>
       </c>
       <c r="C10">
-        <v>-0.02401182120428521</v>
+        <v>0.03968163961118194</v>
       </c>
       <c r="D10">
-        <v>-0.03455708025001789</v>
+        <v>-0.01824063782430705</v>
       </c>
       <c r="E10">
-        <v>0.2259847961299239</v>
+        <v>0.08824670105800989</v>
       </c>
       <c r="F10">
-        <v>-0.01587301587301587</v>
+        <v>0.02675006408842287</v>
       </c>
       <c r="G10">
-        <v>-0.1065903603684166</v>
+        <v>-0.08725906429541258</v>
       </c>
       <c r="H10">
-        <v>-0.09151973131821978</v>
+        <v>-0.08536153220613039</v>
       </c>
       <c r="I10">
-        <v>0.1200312877764346</v>
+        <v>0.01136872012734868</v>
       </c>
       <c r="J10">
-        <v>-0.0772072404876247</v>
+        <v>0.03510513359989765</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -775,31 +775,31 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0.09929485733413863</v>
+        <v>0.07332750332580645</v>
       </c>
       <c r="C11">
-        <v>0.0291724293203821</v>
+        <v>0.06755893398185502</v>
       </c>
       <c r="D11">
-        <v>0.06624007900101087</v>
+        <v>0.0593911556637189</v>
       </c>
       <c r="E11">
-        <v>0.01536751758084563</v>
+        <v>0.06416977980187109</v>
       </c>
       <c r="F11">
-        <v>0.06416637225208294</v>
+        <v>0.07335753635057181</v>
       </c>
       <c r="G11">
-        <v>0.01917226442420983</v>
+        <v>0.01327863815501816</v>
       </c>
       <c r="H11">
-        <v>0.02864970942634217</v>
+        <v>0.007625375116556168</v>
       </c>
       <c r="I11">
-        <v>0.1465098535459739</v>
+        <v>0.07943179032868607</v>
       </c>
       <c r="J11">
-        <v>0.02089691122409309</v>
+        <v>0.05637830170866578</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -807,31 +807,31 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>0.01451679800912478</v>
+        <v>-0.02651202460660041</v>
       </c>
       <c r="C12">
-        <v>-0.02932551319648097</v>
+        <v>-0.01220026996721192</v>
       </c>
       <c r="D12">
-        <v>-0.01503759398496235</v>
+        <v>-0.01835875536755758</v>
       </c>
       <c r="E12">
-        <v>0.01451679800912478</v>
+        <v>-0.01906278340548973</v>
       </c>
       <c r="F12">
-        <v>-0.01027960526315787</v>
+        <v>-0.01907381609028022</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.003302159163057465</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.001214452577232169</v>
       </c>
       <c r="I12">
-        <v>-0.02932551319648097</v>
+        <v>-0.01943256581577347</v>
       </c>
       <c r="J12">
-        <v>-0.02704987320371931</v>
+        <v>-0.02145303380900622</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -839,31 +839,31 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.06478873239436632</v>
+        <v>-0.01640545038303422</v>
       </c>
       <c r="C13">
-        <v>0.07046070460704609</v>
+        <v>-0.01100242344824708</v>
       </c>
       <c r="D13">
-        <v>-0.06944444444444441</v>
+        <v>-0.01967300384010653</v>
       </c>
       <c r="E13">
-        <v>-0.02997275204359669</v>
+        <v>-0.0003961550648782882</v>
       </c>
       <c r="F13">
-        <v>-0.05538461538461534</v>
+        <v>-0.01604048331683916</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.02803988440721968</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02341463414634147</v>
       </c>
       <c r="I13">
-        <v>-0.0576923076923077</v>
+        <v>-0.01402936887645939</v>
       </c>
       <c r="J13">
-        <v>0.1812865497076024</v>
+        <v>-0.03106121285110207</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -871,31 +871,31 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>0.3769230769230769</v>
+        <v>-0.002022273317905324</v>
       </c>
       <c r="C14">
-        <v>-0.09197080291970815</v>
+        <v>0.05139571493535151</v>
       </c>
       <c r="D14">
-        <v>-0.02307692307692308</v>
+        <v>0.03429290514098241</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.0265992744152948</v>
       </c>
       <c r="F14">
-        <v>0.1440922190201729</v>
+        <v>0.03483641034729167</v>
       </c>
       <c r="G14">
-        <v>0.1991999999999999</v>
+        <v>0.07171680144946865</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.04106628242074932</v>
+        <v>0.02686504374797374</v>
       </c>
       <c r="J14">
-        <v>0.04676753782668504</v>
+        <v>-0.01548071320474467</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -903,31 +903,31 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>0.5130472475075856</v>
+        <v>0.4546652542312514</v>
       </c>
       <c r="C15">
-        <v>0.3438428366075707</v>
+        <v>0.4666805105087049</v>
       </c>
       <c r="D15">
-        <v>0.4487714418173389</v>
+        <v>0.4198659121212914</v>
       </c>
       <c r="E15">
-        <v>0.3376476145488899</v>
+        <v>0.3650649388253931</v>
       </c>
       <c r="F15">
-        <v>0.731333640978311</v>
+        <v>0.3891340924589637</v>
       </c>
       <c r="G15">
-        <v>0.1270668176670441</v>
+        <v>0.02366754251603956</v>
       </c>
       <c r="H15">
-        <v>-0.0006139677666922268</v>
+        <v>0.006653109782347528</v>
       </c>
       <c r="I15">
-        <v>0.6088208820882087</v>
+        <v>0.4912028991796564</v>
       </c>
       <c r="J15">
-        <v>0.3533623609095307</v>
+        <v>0.4240418478107541</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -935,31 +935,31 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>0.41771662210604</v>
+        <v>0.3775332993992039</v>
       </c>
       <c r="C16">
-        <v>0.3733871127453246</v>
+        <v>0.4192045831923263</v>
       </c>
       <c r="D16">
-        <v>0.4856464407187964</v>
+        <v>0.4053329485474538</v>
       </c>
       <c r="E16">
-        <v>0.4238281244230387</v>
+        <v>0.3617757671441406</v>
       </c>
       <c r="F16">
-        <v>0.3433221522680295</v>
+        <v>0.3793718667591929</v>
       </c>
       <c r="G16">
-        <v>0.07218113831635374</v>
+        <v>0.09420715353365158</v>
       </c>
       <c r="H16">
-        <v>0.05756422450970444</v>
+        <v>0.08487488814987577</v>
       </c>
       <c r="I16">
-        <v>0.4449905980697924</v>
+        <v>0.4340067321122276</v>
       </c>
       <c r="J16">
-        <v>0.291070299888343</v>
+        <v>0.2475042997795921</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -967,31 +967,31 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>0.2100437297221046</v>
+        <v>0.1887644103408573</v>
       </c>
       <c r="C17">
-        <v>-0.009026994184532606</v>
+        <v>0.1662078421592635</v>
       </c>
       <c r="D17">
-        <v>0.1449934068400528</v>
+        <v>0.1327688006321546</v>
       </c>
       <c r="E17">
-        <v>0.07204780742361756</v>
+        <v>0.04643148446459436</v>
       </c>
       <c r="F17">
-        <v>0.2100437297221046</v>
+        <v>0.08103114364072406</v>
       </c>
       <c r="G17">
-        <v>0.1032793334048564</v>
+        <v>0.01004772167474405</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.004659486158082851</v>
       </c>
       <c r="I17">
-        <v>0.2153565924057728</v>
+        <v>0.1661284096956609</v>
       </c>
       <c r="J17">
-        <v>-0.09471214935001485</v>
+        <v>0.1738286728741544</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -999,31 +999,31 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>0.0229667881006179</v>
+        <v>0.03029139421131814</v>
       </c>
       <c r="C18">
-        <v>0.01858277327451917</v>
+        <v>0.0403624199557618</v>
       </c>
       <c r="D18">
-        <v>0.03845373496969431</v>
+        <v>0.04269809198693863</v>
       </c>
       <c r="E18">
-        <v>0.0859629674552513</v>
+        <v>0.03057873337091238</v>
       </c>
       <c r="F18">
-        <v>0.09809833824115108</v>
+        <v>0.03352899828704188</v>
       </c>
       <c r="G18">
-        <v>-0.007520582002594521</v>
+        <v>0.01929435159799742</v>
       </c>
       <c r="H18">
-        <v>0.003400311055631334</v>
+        <v>-0.002159419546415725</v>
       </c>
       <c r="I18">
-        <v>0.02891295783279457</v>
+        <v>0.03652705148705451</v>
       </c>
       <c r="J18">
-        <v>0.05517714813032964</v>
+        <v>0.03508952582107776</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1031,31 +1031,31 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>0.4277524218092092</v>
+        <v>0.4240533593884852</v>
       </c>
       <c r="C19">
-        <v>0.3865853726937875</v>
+        <v>0.4830397061108483</v>
       </c>
       <c r="D19">
-        <v>0.4038478214192654</v>
+        <v>0.4322827548285293</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.4309558697116916</v>
       </c>
       <c r="F19">
-        <v>0.4855928333401088</v>
+        <v>0.512547561642074</v>
       </c>
       <c r="G19">
-        <v>0.04811294912513467</v>
+        <v>0.05900266391867068</v>
       </c>
       <c r="H19">
-        <v>0.1141997913488729</v>
+        <v>0.03576502852014246</v>
       </c>
       <c r="I19">
-        <v>0.3497656062829619</v>
+        <v>0.4753072077424081</v>
       </c>
       <c r="J19">
-        <v>0.2381696085989845</v>
+        <v>0.4004133924104988</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1063,31 +1063,31 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.3259359903381642</v>
+        <v>0.3816955166982435</v>
       </c>
       <c r="C20">
-        <v>0.2378378378378379</v>
+        <v>0.2857873380325094</v>
       </c>
       <c r="D20">
-        <v>0.1561557030778516</v>
+        <v>0.4056151877986726</v>
       </c>
       <c r="E20">
-        <v>0.2787225217751971</v>
+        <v>0.08874037811549051</v>
       </c>
       <c r="F20">
-        <v>0.01201201201201204</v>
+        <v>0.2731444322602155</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0001423276501111915</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>-5.865020965302198e-05</v>
       </c>
       <c r="I20">
-        <v>0.03083716926761719</v>
+        <v>0.2757960072333071</v>
       </c>
       <c r="J20">
-        <v>0.1259345531051584</v>
+        <v>0.2096452636508926</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1095,31 +1095,31 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.0003192649244378704</v>
+        <v>0.1963444671708301</v>
       </c>
       <c r="C21">
-        <v>-0.000452379759883236</v>
+        <v>0.1339463574032974</v>
       </c>
       <c r="D21">
-        <v>0.1276766954267066</v>
+        <v>0.1318437110636634</v>
       </c>
       <c r="E21">
-        <v>0.02582549127837833</v>
+        <v>0.03195132238008872</v>
       </c>
       <c r="F21">
-        <v>0.03680481558334739</v>
+        <v>0.1469580154630888</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>-0.0002543808801890623</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5409740077900257</v>
+        <v>0.1334345506197982</v>
       </c>
       <c r="J21">
-        <v>-0.1070392828895331</v>
+        <v>0.05689839863800779</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1127,31 +1127,31 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>0.1805643922215898</v>
+        <v>0.2631205435072992</v>
       </c>
       <c r="C22">
-        <v>0.1547785411539182</v>
+        <v>0.1568076872150954</v>
       </c>
       <c r="D22">
-        <v>0.3644577333044043</v>
+        <v>0.2751954873945348</v>
       </c>
       <c r="E22">
-        <v>-0.006366041680322763</v>
+        <v>0.01133236731020058</v>
       </c>
       <c r="F22">
-        <v>0.3044498338916452</v>
+        <v>0.1843436438827856</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>-0.001363739124292105</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>-0.0004574646679702831</v>
       </c>
       <c r="I22">
-        <v>0.03069544202482084</v>
+        <v>0.1463943381478505</v>
       </c>
       <c r="J22">
-        <v>0.1145051826490301</v>
+        <v>0.1257370994628802</v>
       </c>
     </row>
   </sheetData>
